--- a/src/test/resources/Sheet2.xlsx
+++ b/src/test/resources/Sheet2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15270" windowHeight="5250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15465" windowHeight="6540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -12,78 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N16"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Unit Name</t>
-  </si>
-  <si>
-    <t>Kilogram</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Anu</t>
-  </si>
-  <si>
-    <t>Abhi</t>
-  </si>
-  <si>
-    <t>Kavi</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>usha</t>
-  </si>
-  <si>
-    <t>chandu</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>value3</t>
-  </si>
-  <si>
-    <t>value4</t>
-  </si>
-  <si>
-    <t>value5</t>
-  </si>
-  <si>
-    <t>value6</t>
-  </si>
-  <si>
-    <t>product:name</t>
-  </si>
-  <si>
-    <t>product:price</t>
-  </si>
-  <si>
-    <t>product:description</t>
-  </si>
-  <si>
-    <t>veg_puff</t>
-  </si>
-  <si>
-    <t>order _successfully</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="31">
   <si>
     <t>Mysore</t>
   </si>
@@ -95,12 +29,94 @@
   </si>
   <si>
     <t>Bannur</t>
+  </si>
+  <si>
+    <t>Soundarya Mahal A/C 4K Dolby Atmos: Doddaballapur</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad 1i Laptop 14" HD Display, Intel Pentium Silver N5030 Processor(4-Core, up to 3.1 GHz), 4GB RAM, 256GB Storage(128GB eMMC + 128GB MSD Card), 10Hr Battery, Win 11 S, 1 Year Microsoft 365</t>
+  </si>
+  <si>
+    <t>Lenovo 15.6" IdeaPad 1 Laptop, AMD Dual-core Processor, 15.6" HD Anti-Glare Display, Wi-Fi 6 and Bluetooth 5.0, HDMI, Windows 11 Home in S Mode(20GB RAM | 1TB SSD)</t>
+  </si>
+  <si>
+    <t>SGIN Laptop 15.6 Inch, 4GB DDR4 128GB SSD Windows 11 Laptops with Intel Celeron N4020C(up to 2.8 GHz), Intel UHD Graphics 600, Mini HDMI, WiFi, Webcam, USB3.0, Bluetooth 4.2</t>
+  </si>
+  <si>
+    <t>Lenovo 2022 Newest Ideapad 3 Laptop, 15.6" HD Touchscreen, 11th Gen Intel Core i3-1115G4 Processor, 8GB DDR4 RAM, 256GB PCIe NVMe SSD, HDMI, Webcam, Wi-Fi 5, Bluetooth, Windows 11 Home, Almond</t>
+  </si>
+  <si>
+    <t>2021 HP Stream 14" HD SVA Laptop Computer, Intel Celeron N4000 Processor, 4GB RAM, 64GB eMMC Flash Memory, Webcam, 1-Year Office, Intel UHD Graphics 600, Win 10S, Rose Pink, 32GB SnowBell USB Card</t>
+  </si>
+  <si>
+    <t>Samsung Chromebook 4 (2021 Model) 11.6" Intel UHD Graphics 600, Intel Celeron Processor N4020, 4GB, 16GB- Wi-Fi - Satin Gray- (XE310XBA-KB1US)</t>
+  </si>
+  <si>
+    <t>[2021 Version]ASUS Vivobook Laptop L210 11.6” ultra thin, Intel Celeron N4020 Processor, 4GB RAM, 64GB eMMC storage, Windows 10 Home in S mode with One Year of Office 365 Personal, L210MA-DB01</t>
+  </si>
+  <si>
+    <t>Lenovo 14" Laptop, IdeaPad 1, Intel Quad-core Processor, 14" HD Anti-Glare Display, 4GB RAM, HDMI, SD Card Reader, Long Battery Life, Includes MS Office 365, Windows 11 Home in S Mode (256GB SSD)</t>
+  </si>
+  <si>
+    <t>2022 Newest HP Envy 2-in-1 Laptop, 15.6" IPS FHD Touchscreen, AMD Ryzen 5 5625U(&gt; i7-1165G7), 16GB DDR4, 512GB SSD, Backlit Keyboard, Fast Charge, Amazon Alexa, Wi-Fi 6E, W/ Stylus, Windows 11, Black</t>
+  </si>
+  <si>
+    <t>Acer Aspire 5 A515-45-R74Z Slim Laptop | 15.6" Full HD IPS | AMD Ryzen 5 5500U Hexa-Core Mobile Processor | AMD Radeon Graphics | 8GB DDR4 | 256GB NVMe SSD | WiFi 6 | Backlit KB | Windows 11 Home</t>
+  </si>
+  <si>
+    <t>Acer Chromebook Spin 314 Convertible Laptop | Intel Pentium Silver N6000 | 14" HD Corning Gorilla Glass Touch Display | 4GB LPDDR4X | 128GB eMMC | Intel Wi-Fi 6 AX201 | Chrome OS | CP314-1H-P9G7</t>
+  </si>
+  <si>
+    <t>Lenovo 15.6" IdeaPad 1 Laptop, 20GB Memory, 1TB SSD Storage, Intel Pentium Processor (4-cores, 3.3GHz), 15.6" Anti-glare Display, Wi-Fi 6 and Bluetooth, HDMI, Type-C, 1 Year Office 365,Windows 11 Home</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad 15.6" Laptop Newest, 15.6 Inch HD Anti-Glare Display, AMD Dual-core Processor, 20GB RAM 1TB SSD, WiFi6 Bluetooth5, 9.5Hr Battery, Windows 11 +GM Accessories</t>
+  </si>
+  <si>
+    <t>Acer Aspire 5 A515-56-32DK Slim Laptop - 15.6" Full HD IPS Display - 11th Gen Intel i3-1115G4 Dual Core Processor - 4GB DDR4 - 128GB NVMe SSD - WiFi 6 - Amazon Alexa - Windows 11 Home in S mode.</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad 1 Laptop, 15.6" HD Screen, AMD Athlon Silver 3050U, 20GB RAM, 1TB PCIe SSD, Webcam, HDMI, Type-C, Wi-Fi 6, Media Card Reader, Windows 11 Home, Cloud Grey</t>
+  </si>
+  <si>
+    <t>HP 15.6" Laptop with Intel 4-core CPU, 15.6" HD LED Display, Intel Quad-core Processor, Bluetooth and Wi-Fi, HDMI, Long Battery Life, Windows 11 Home in S Mode(16GB RAM | 1TB SSD)</t>
+  </si>
+  <si>
+    <t>ASUS 2022 Newest Military-Grade Student Laptop, 11.6'' HD Certified Eye-Care Display, Intel Dual-Core Processor, 4GB RAM, Ethernet Port, Keyboard, USB Type-C, Win10 Pro (256GB Storage) (BR1100)</t>
+  </si>
+  <si>
+    <t>HP Newest 15.6" Laptop , FHD, AMD R5-5500U, 8GB RAM, 256GB SSD, USB Type-C and USB Type-A , HDMI, Built-in Microphone/ Webcam, Windows 11, Spruce Blue</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad 1 14 Laptop, 14.0" HD Display, Intel Celeron N4020, 4GB RAM, 64GB Storage, Intel UHD Graphics 600, Win 11 in S Mode, Cloud Grey</t>
+  </si>
+  <si>
+    <t>HP Laptop, 15.6" HD Screen, Intel Pentium Silver N5030 4 Cores Processor, 32GB Memory, 1TB SSD, USB-C, SD Card Reader, RJ-45, 1-Year Office365 Subscription, HDMI, Wi-Fi, Windows OS, Red, JVQ MP</t>
+  </si>
+  <si>
+    <t>ASUS Chromebook CX1, 15.6" Full HD NanoEdge Display, Intel Celeron N3350 Processor, 64GB eMMC Storage, 8GB RAM, Chrome OS, Transparent Silver, CX1500CNA-AS84F</t>
+  </si>
+  <si>
+    <t>Acer Aspire 5 15.6" FHD IPS Slim Laptop, AMD Ryzen 3 3350U 4-Core Processor(Up to 3.5GHz), 20GB RAM, 1TB NVMe SSD, Backlit KB, Fingerprint Reader, Amazon Alexa, Win 11 S, 3in1 Accessories</t>
+  </si>
+  <si>
+    <t>Acer 2023 Newest Aspire 5 Slim Essential Laptop, 15.6" Full HD IPS Display, 20GB RAM, 1TB SSD, Intel Dual-Core i3 Processor Up to 4.1 GHz, HDMI, Windows 11 S</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop Go 12.4" Touchscreen, Intel Core i5-1035G1 Processor, 4 GB RAM, 128GB PCIe SSD, Up to 13Hr Battery Life, WiFi, Webcam, Windows 11 Pro, Platinum Silver</t>
+  </si>
+  <si>
+    <t>Gateway Newest Touchscreen 11.6 HD 2-in-1 Convertible Laptop in Blue Intel N4020 4GB RAM 64GB SSD Mini-HDMI Webcam Windows 10 S (Renewed) (GT-116)</t>
+  </si>
+  <si>
+    <t>Coolby 2023 Windows 11 Laptop, 15.6 inch 1920x1080 IPS Display, 12GB DDR4 RAM / 256GB SSD Laptop Computers, Intel J4125 Quad-Core Processor Notebook PC, Support 2.4G/5G Hz WiFi, BT, Full Size Keyboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -130,9 +146,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,95 +442,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A227" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -527,30 +709,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -560,12 +742,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>